--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1650.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1650.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.063593252450411</v>
+        <v>2.842200040817261</v>
       </c>
       <c r="B1">
-        <v>3.685339148953686</v>
+        <v>3.075647830963135</v>
       </c>
       <c r="C1">
-        <v>3.124571206594782</v>
+        <v>2.800085306167603</v>
       </c>
       <c r="D1">
-        <v>2.345100463579457</v>
+        <v>3.159723997116089</v>
       </c>
       <c r="E1">
-        <v>1.286977911241792</v>
+        <v>2.393796920776367</v>
       </c>
     </row>
   </sheetData>
